--- a/264-task-valeur-statut-à-vérifier/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/264-task-valeur-statut-à-vérifier/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-22T13:15:42+00:00</t>
+    <t>2024-11-22T13:30:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
